--- a/data/pca/factorExposure/factorExposure_2018-08-20.xlsx
+++ b/data/pca/factorExposure/factorExposure_2018-08-20.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,9 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,79 +726,91 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>-0.03733487610763065</v>
+        <v>0.03038561859504537</v>
       </c>
       <c r="C2">
-        <v>-0.04472833452037438</v>
+        <v>0.01477834924851306</v>
       </c>
       <c r="D2">
-        <v>-0.03709807692595428</v>
+        <v>0.01347990388179657</v>
       </c>
       <c r="E2">
-        <v>0.0505416107698192</v>
+        <v>-0.01495857047364724</v>
       </c>
       <c r="F2">
-        <v>-0.1449806658937637</v>
+        <v>-0.02263989397468413</v>
       </c>
       <c r="G2">
-        <v>0.05151077410256519</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>0.08491366572001484</v>
+      </c>
+      <c r="H2">
+        <v>-0.02093378305421541</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>-0.1212761584622229</v>
+        <v>0.08232124171735625</v>
       </c>
       <c r="C3">
-        <v>-0.003600134518793343</v>
+        <v>-0.01411054332158751</v>
       </c>
       <c r="D3">
-        <v>-0.02617424286558926</v>
+        <v>0.01701296010708325</v>
       </c>
       <c r="E3">
-        <v>0.09939833431562975</v>
+        <v>-0.005786014073484853</v>
       </c>
       <c r="F3">
-        <v>-0.3855206084838358</v>
+        <v>0.01573126532719838</v>
       </c>
       <c r="G3">
-        <v>0.1706303499865505</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>0.2710580210663552</v>
+      </c>
+      <c r="H3">
+        <v>-0.04078633287120945</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>-0.05432824469494441</v>
+        <v>0.05000605832882529</v>
       </c>
       <c r="C4">
-        <v>-0.03690744038678113</v>
+        <v>0.003110842181183128</v>
       </c>
       <c r="D4">
-        <v>0.0009840462245919537</v>
+        <v>0.03205760808477173</v>
       </c>
       <c r="E4">
-        <v>0.06404724041722178</v>
+        <v>0.02062426289874546</v>
       </c>
       <c r="F4">
-        <v>-0.07111743260450845</v>
+        <v>-0.05495077514633118</v>
       </c>
       <c r="G4">
-        <v>0.04792722995288905</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>0.0535451635710342</v>
+      </c>
+      <c r="H4">
+        <v>-0.02648910503159737</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,217 +830,247 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>-0.01311107013388545</v>
+        <v>0.02927915807518492</v>
       </c>
       <c r="C6">
-        <v>0.002397324988124287</v>
+        <v>0.003415542490179466</v>
       </c>
       <c r="D6">
-        <v>-0.01477765278910411</v>
+        <v>0.041745343609009</v>
       </c>
       <c r="E6">
-        <v>0.02243191676885218</v>
+        <v>0.005548664896111099</v>
       </c>
       <c r="F6">
-        <v>-0.01228892886810382</v>
+        <v>-0.03545274549615379</v>
       </c>
       <c r="G6">
-        <v>-0.003189313937601102</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>0.01635360546356102</v>
+      </c>
+      <c r="H6">
+        <v>-0.05272750583385508</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>-0.02752946878961519</v>
+        <v>0.02164336283261239</v>
       </c>
       <c r="C7">
-        <v>-0.01501884028348702</v>
+        <v>0.002568129894627782</v>
       </c>
       <c r="D7">
-        <v>-0.0337953754717053</v>
+        <v>0.018294690173141</v>
       </c>
       <c r="E7">
-        <v>0.03613057985034262</v>
+        <v>0.03538379725211276</v>
       </c>
       <c r="F7">
-        <v>-0.06143585382428697</v>
+        <v>-0.01956925606311815</v>
       </c>
       <c r="G7">
-        <v>0.05626989181079722</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>0.04027543607370233</v>
+      </c>
+      <c r="H7">
+        <v>-0.01559581257812887</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>-0.018010000447882</v>
+        <v>0.007021596545829852</v>
       </c>
       <c r="C8">
-        <v>-0.01541825231914576</v>
+        <v>-0.002776111624101895</v>
       </c>
       <c r="D8">
-        <v>0.003198725804095189</v>
+        <v>0.008572582886434246</v>
       </c>
       <c r="E8">
-        <v>0.07114237060292865</v>
+        <v>0.01149395097383902</v>
       </c>
       <c r="F8">
-        <v>-0.08493076648798129</v>
+        <v>-0.02676869632201467</v>
       </c>
       <c r="G8">
-        <v>0.0672059487329543</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>0.05802573055070603</v>
+      </c>
+      <c r="H8">
+        <v>-0.007016541041137804</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>-0.04569452501973168</v>
+        <v>0.04156880754819039</v>
       </c>
       <c r="C9">
-        <v>-0.02864700454635889</v>
+        <v>-0.001152186011401184</v>
       </c>
       <c r="D9">
-        <v>0.01221190953937461</v>
+        <v>0.02711104071491737</v>
       </c>
       <c r="E9">
-        <v>0.06842933239846259</v>
+        <v>0.01876923795791305</v>
       </c>
       <c r="F9">
-        <v>-0.06464739580094762</v>
+        <v>-0.03325423567459725</v>
       </c>
       <c r="G9">
-        <v>0.05018680303828468</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>0.06277416192090474</v>
+      </c>
+      <c r="H9">
+        <v>-0.02465344824269397</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>-0.04891356540429556</v>
+        <v>0.0978509198724449</v>
       </c>
       <c r="C10">
-        <v>-0.04136847474642932</v>
+        <v>-0.03217799481797975</v>
       </c>
       <c r="D10">
-        <v>0.02760189243944948</v>
+        <v>-0.1459113515046271</v>
       </c>
       <c r="E10">
-        <v>-0.1147322607257493</v>
+        <v>-0.01964721032766274</v>
       </c>
       <c r="F10">
-        <v>-0.07778617779987836</v>
+        <v>0.0677332209262287</v>
       </c>
       <c r="G10">
-        <v>-0.03964223114330748</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>0.02261454213127516</v>
+      </c>
+      <c r="H10">
+        <v>-0.005118626812940074</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>-0.03408521702494292</v>
+        <v>0.022999046238758</v>
       </c>
       <c r="C11">
-        <v>-0.01078435419386116</v>
+        <v>-0.008370226072946853</v>
       </c>
       <c r="D11">
-        <v>-0.01894305371489253</v>
+        <v>0.03367578642387116</v>
       </c>
       <c r="E11">
-        <v>0.03590173108109324</v>
+        <v>-0.003045911426938991</v>
       </c>
       <c r="F11">
-        <v>-0.03316755586429065</v>
+        <v>-0.01983079929001892</v>
       </c>
       <c r="G11">
-        <v>0.02212401543525797</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>0.03680553055970209</v>
+      </c>
+      <c r="H11">
+        <v>-0.0275252148602828</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>-0.0422553279812061</v>
+        <v>0.03202829072104101</v>
       </c>
       <c r="C12">
-        <v>-0.01223658949720998</v>
+        <v>-0.006909862805795309</v>
       </c>
       <c r="D12">
-        <v>-0.005858520534613436</v>
+        <v>0.03332663004614007</v>
       </c>
       <c r="E12">
-        <v>0.04465819304704599</v>
+        <v>0.008208497771020989</v>
       </c>
       <c r="F12">
-        <v>-0.01539727129013266</v>
+        <v>-0.02355583889291439</v>
       </c>
       <c r="G12">
-        <v>0.01745071026277391</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>0.01438416437712787</v>
+      </c>
+      <c r="H12">
+        <v>-0.01409591772888781</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>-0.02143644965740588</v>
+        <v>0.02753151670838012</v>
       </c>
       <c r="C13">
-        <v>-0.02339236440767578</v>
+        <v>0.01287858528391412</v>
       </c>
       <c r="D13">
-        <v>-0.03309377945857139</v>
+        <v>0.001782447574011816</v>
       </c>
       <c r="E13">
-        <v>0.01742596936337189</v>
+        <v>-0.01799921549930575</v>
       </c>
       <c r="F13">
-        <v>-0.09011731708921518</v>
+        <v>-0.01798533896366173</v>
       </c>
       <c r="G13">
-        <v>0.03397355031955565</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>0.07159824681509067</v>
+      </c>
+      <c r="H13">
+        <v>-0.02715492093528296</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>-0.01223611892232169</v>
+        <v>0.0169147630907471</v>
       </c>
       <c r="C14">
-        <v>-0.01699117921132686</v>
+        <v>0.0001016116792896498</v>
       </c>
       <c r="D14">
-        <v>-0.00557053387289998</v>
+        <v>0.002999258025286515</v>
       </c>
       <c r="E14">
-        <v>0.040789742500244</v>
+        <v>0.008497304605013635</v>
       </c>
       <c r="F14">
-        <v>-0.06247301080880487</v>
+        <v>-0.02226697193318052</v>
       </c>
       <c r="G14">
-        <v>0.06542053141551152</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>0.04722697855393154</v>
+      </c>
+      <c r="H14">
+        <v>0.01796312632297894</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1045,33 +1090,39 @@
       <c r="G15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>-0.02553630497192497</v>
+        <v>0.02448301674216409</v>
       </c>
       <c r="C16">
-        <v>-0.01162598252919237</v>
+        <v>-0.008970104360061229</v>
       </c>
       <c r="D16">
-        <v>-0.01654245324769263</v>
+        <v>0.02907041201034563</v>
       </c>
       <c r="E16">
-        <v>0.03427799037205639</v>
+        <v>0.001540601081336765</v>
       </c>
       <c r="F16">
-        <v>-0.03892554477487529</v>
+        <v>-0.02182696517057417</v>
       </c>
       <c r="G16">
-        <v>0.02510051362136658</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>0.03276651236684281</v>
+      </c>
+      <c r="H16">
+        <v>-0.02147355489276631</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1142,13 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,79 +1168,91 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>-0.04042063523529886</v>
+        <v>0.03425363652336956</v>
       </c>
       <c r="C19">
-        <v>-0.0111614733367398</v>
+        <v>-0.0003525900952794981</v>
       </c>
       <c r="D19">
-        <v>-0.01751560500477985</v>
+        <v>0.01321109517687321</v>
       </c>
       <c r="E19">
-        <v>0.05546094499948489</v>
+        <v>-0.0001594165791037219</v>
       </c>
       <c r="F19">
-        <v>-0.09893397091234593</v>
+        <v>-0.02874420705208244</v>
       </c>
       <c r="G19">
-        <v>0.04519127989489737</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>0.07562184699017063</v>
+      </c>
+      <c r="H19">
+        <v>-0.03638774640644356</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>-0.0004651838273954012</v>
+        <v>0.0111332159196165</v>
       </c>
       <c r="C20">
-        <v>-0.02189991684517152</v>
+        <v>0.005927938612308534</v>
       </c>
       <c r="D20">
-        <v>-0.009580514026859359</v>
+        <v>0.001545992485917452</v>
       </c>
       <c r="E20">
-        <v>0.03537042925820249</v>
+        <v>0.0002265738671342026</v>
       </c>
       <c r="F20">
-        <v>-0.06165526979045351</v>
+        <v>-0.01548905369527196</v>
       </c>
       <c r="G20">
-        <v>0.06832322619533003</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>0.05296740631318052</v>
+      </c>
+      <c r="H20">
+        <v>0.009997054580539387</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.0008004389849777429</v>
+        <v>0.02297297019193787</v>
       </c>
       <c r="C21">
-        <v>0.004223482402288317</v>
+        <v>0.00544370370754818</v>
       </c>
       <c r="D21">
-        <v>-0.006904826901831685</v>
+        <v>0.003606426938617751</v>
       </c>
       <c r="E21">
-        <v>0.04431009430522383</v>
+        <v>0.01128185120939687</v>
       </c>
       <c r="F21">
-        <v>-0.0615789532723937</v>
+        <v>-0.008568340497833966</v>
       </c>
       <c r="G21">
-        <v>0.02998427504155387</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>0.05740313139449996</v>
+      </c>
+      <c r="H21">
+        <v>-0.009998486247849618</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1206,10 +1272,13 @@
       <c r="G22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1229,263 +1298,299 @@
       <c r="G23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>-0.03294620109007307</v>
+        <v>0.02285924754217596</v>
       </c>
       <c r="C24">
-        <v>-0.01549148793189417</v>
+        <v>-0.003587918294884565</v>
       </c>
       <c r="D24">
-        <v>-0.01322450565111369</v>
+        <v>0.02970172148040801</v>
       </c>
       <c r="E24">
-        <v>0.02299976794544231</v>
+        <v>0.001565801497024078</v>
       </c>
       <c r="F24">
-        <v>-0.03163976188130839</v>
+        <v>-0.0174179954709651</v>
       </c>
       <c r="G24">
-        <v>0.02026467383222554</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>0.03077656451526492</v>
+      </c>
+      <c r="H24">
+        <v>-0.02596518588400579</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>-0.03193480992171519</v>
+        <v>0.03405739360596398</v>
       </c>
       <c r="C25">
-        <v>-0.008740863162567569</v>
+        <v>-0.002159301324543254</v>
       </c>
       <c r="D25">
-        <v>-0.009646463517720118</v>
+        <v>0.02586611493252209</v>
       </c>
       <c r="E25">
-        <v>0.04028303082913894</v>
+        <v>0.002269261800601589</v>
       </c>
       <c r="F25">
-        <v>-0.03151202372782091</v>
+        <v>-0.02184901069099013</v>
       </c>
       <c r="G25">
-        <v>0.007085807803887763</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>0.03474764365463464</v>
+      </c>
+      <c r="H25">
+        <v>-0.02920442936816173</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>-0.02019066021356129</v>
+        <v>0.02020158841810914</v>
       </c>
       <c r="C26">
-        <v>0.005181982883023703</v>
+        <v>0.01718857811322153</v>
       </c>
       <c r="D26">
-        <v>-0.03556511908442915</v>
+        <v>0.004168711666122172</v>
       </c>
       <c r="E26">
-        <v>0.04035554589869686</v>
+        <v>-0.007125478620349713</v>
       </c>
       <c r="F26">
-        <v>-0.05773122594909844</v>
+        <v>-0.003740167043271429</v>
       </c>
       <c r="G26">
-        <v>0.0328094045923252</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>0.0387440378958428</v>
+      </c>
+      <c r="H26">
+        <v>0.002605896965264358</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B27">
-        <v>-0.07594657500539585</v>
+        <v>0.0311511331108771</v>
       </c>
       <c r="C27">
-        <v>-0.05019262956137209</v>
+        <v>-0.01204713273890335</v>
       </c>
       <c r="D27">
-        <v>-0.0002418658448829974</v>
+        <v>0.01170498667979818</v>
       </c>
       <c r="E27">
-        <v>0.05181116576028762</v>
+        <v>0.006354525259214334</v>
       </c>
       <c r="F27">
-        <v>-0.05188625819259288</v>
+        <v>-0.02530941586433789</v>
       </c>
       <c r="G27">
-        <v>0.05313652561281194</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>0.0281764456606893</v>
+      </c>
+      <c r="H27">
+        <v>0.001920061620376854</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>-0.07178971769235591</v>
+        <v>0.147401687240416</v>
       </c>
       <c r="C28">
-        <v>-0.060992747134566</v>
+        <v>-0.03521999087761707</v>
       </c>
       <c r="D28">
-        <v>0.05568037432301348</v>
+        <v>-0.2170968122389768</v>
       </c>
       <c r="E28">
-        <v>-0.1711249063762119</v>
+        <v>-0.02313532077413814</v>
       </c>
       <c r="F28">
-        <v>-0.0978694017308419</v>
+        <v>0.08909492759914707</v>
       </c>
       <c r="G28">
-        <v>-0.01489343871173386</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>0.008799829231928628</v>
+      </c>
+      <c r="H28">
+        <v>0.01177031097389643</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>-0.0219186422291117</v>
+        <v>0.02237585313985319</v>
       </c>
       <c r="C29">
-        <v>-0.01966359709306323</v>
+        <v>-0.002237651783116404</v>
       </c>
       <c r="D29">
-        <v>0.0008402479395845792</v>
+        <v>0.004614351259802943</v>
       </c>
       <c r="E29">
-        <v>0.05491449354209266</v>
+        <v>0.009896842871237833</v>
       </c>
       <c r="F29">
-        <v>-0.04673068726912571</v>
+        <v>-0.02439659952120108</v>
       </c>
       <c r="G29">
-        <v>0.06404950250279581</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>0.03950029535171188</v>
+      </c>
+      <c r="H29">
+        <v>0.01874922849189222</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>-0.09096461116570745</v>
+        <v>0.05601083188293251</v>
       </c>
       <c r="C30">
-        <v>-0.05128311047438495</v>
+        <v>0.00319930626406422</v>
       </c>
       <c r="D30">
-        <v>-0.04228025199150089</v>
+        <v>0.0597044677766926</v>
       </c>
       <c r="E30">
-        <v>0.08349291020121291</v>
+        <v>-0.03288943636508596</v>
       </c>
       <c r="F30">
-        <v>-0.04449774330164678</v>
+        <v>-0.06655736517872179</v>
       </c>
       <c r="G30">
-        <v>0.04990206854140488</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>0.0671474642460804</v>
+      </c>
+      <c r="H30">
+        <v>-0.03302175504634473</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>-0.06392986713382155</v>
+        <v>0.05576251739009015</v>
       </c>
       <c r="C31">
-        <v>-0.01411795268404948</v>
+        <v>-0.01476181283251638</v>
       </c>
       <c r="D31">
-        <v>-0.04837452550283166</v>
+        <v>0.02767582594737341</v>
       </c>
       <c r="E31">
-        <v>0.02968710796348484</v>
+        <v>-0.008199724901009715</v>
       </c>
       <c r="F31">
-        <v>-0.03937363257450625</v>
+        <v>-0.01863682100239929</v>
       </c>
       <c r="G31">
-        <v>0.07684779117758299</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>0.02418714631279727</v>
+      </c>
+      <c r="H31">
+        <v>0.01498263966115997</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>-0.0216425110333285</v>
+        <v>0.01502928275492857</v>
       </c>
       <c r="C32">
-        <v>-0.02786839756279472</v>
+        <v>-0.01619679338757295</v>
       </c>
       <c r="D32">
-        <v>-0.005238591127287735</v>
+        <v>-0.007220063457909032</v>
       </c>
       <c r="E32">
-        <v>0.07572711619393301</v>
+        <v>0.01751760653647857</v>
       </c>
       <c r="F32">
-        <v>-0.05902261446296501</v>
+        <v>-0.0464064535031677</v>
       </c>
       <c r="G32">
-        <v>0.05047011230375058</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>0.05791217212218566</v>
+      </c>
+      <c r="H32">
+        <v>-0.04373026053227293</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>-0.05499511764913927</v>
+        <v>0.04053692760626699</v>
       </c>
       <c r="C33">
-        <v>0.0002065541746647406</v>
+        <v>-0.001081948687179116</v>
       </c>
       <c r="D33">
-        <v>-0.0442515931188996</v>
+        <v>0.03156615125472631</v>
       </c>
       <c r="E33">
-        <v>0.07062143288744614</v>
+        <v>-0.02203615788305523</v>
       </c>
       <c r="F33">
-        <v>-0.09006889534309397</v>
+        <v>-0.01129937921721771</v>
       </c>
       <c r="G33">
-        <v>0.04858978746503586</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>0.06543338891081876</v>
+      </c>
+      <c r="H33">
+        <v>-0.01563691070414227</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>-0.03326295770504751</v>
+        <v>0.02917471947340071</v>
       </c>
       <c r="C34">
-        <v>-0.01438560391027794</v>
+        <v>-0.01735936304138957</v>
       </c>
       <c r="D34">
-        <v>-0.01369846325228443</v>
+        <v>0.0300156247598851</v>
       </c>
       <c r="E34">
-        <v>0.04722559818129946</v>
+        <v>0.006312626475004857</v>
       </c>
       <c r="F34">
-        <v>-0.03843934487716005</v>
+        <v>-0.02111812288110939</v>
       </c>
       <c r="G34">
-        <v>0.01943148186402396</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>0.02885263430986768</v>
+      </c>
+      <c r="H34">
+        <v>-0.0234246660035267</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1505,33 +1610,39 @@
       <c r="G35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>-0.01400757158265066</v>
+        <v>0.02248306504257639</v>
       </c>
       <c r="C36">
-        <v>-0.009073383243329878</v>
+        <v>0.00297868941404564</v>
       </c>
       <c r="D36">
-        <v>-0.002689385807996519</v>
+        <v>-0.002014727409329926</v>
       </c>
       <c r="E36">
-        <v>0.02842741121912366</v>
+        <v>0.001866700224666266</v>
       </c>
       <c r="F36">
-        <v>-0.02341129320970033</v>
+        <v>-0.007562264053180105</v>
       </c>
       <c r="G36">
-        <v>0.03511410587405093</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>0.0209276745061748</v>
+      </c>
+      <c r="H36">
+        <v>0.004206061550037798</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,171 +1662,195 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>-0.001003059100329127</v>
+        <v>0.02254069939831026</v>
       </c>
       <c r="C38">
-        <v>0.006542493135856426</v>
+        <v>-0.01671882615397668</v>
       </c>
       <c r="D38">
-        <v>0.01615041314701559</v>
+        <v>-0.0009850472139143901</v>
       </c>
       <c r="E38">
-        <v>-0.001611941399255769</v>
+        <v>0.004721522805111505</v>
       </c>
       <c r="F38">
-        <v>-0.01908128280471524</v>
+        <v>-0.009159809139064026</v>
       </c>
       <c r="G38">
-        <v>-0.01011887656658252</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>0.03022503138812461</v>
+      </c>
+      <c r="H38">
+        <v>-0.02116627592994394</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>-0.03906290739608381</v>
+        <v>0.02206292598167314</v>
       </c>
       <c r="C39">
-        <v>-0.01910242639900215</v>
+        <v>-0.0007739856714524887</v>
       </c>
       <c r="D39">
-        <v>-0.03513764821375401</v>
+        <v>0.07016710443185435</v>
       </c>
       <c r="E39">
-        <v>0.04930120430929391</v>
+        <v>-0.0008737816647118105</v>
       </c>
       <c r="F39">
-        <v>-0.04272405128299402</v>
+        <v>-0.03830734991270277</v>
       </c>
       <c r="G39">
-        <v>0.02005617698144554</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>0.05753878732723697</v>
+      </c>
+      <c r="H39">
+        <v>-0.04934022844371189</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>-0.03253524372763698</v>
+        <v>0.03503664061754854</v>
       </c>
       <c r="C40">
-        <v>-0.04367265960173727</v>
+        <v>-0.002464639420894147</v>
       </c>
       <c r="D40">
-        <v>-0.05679086695017265</v>
+        <v>0.0144146727196161</v>
       </c>
       <c r="E40">
-        <v>0.03099445751622324</v>
+        <v>-0.02165731053248637</v>
       </c>
       <c r="F40">
-        <v>-0.09036229105898068</v>
+        <v>-0.03335489281644369</v>
       </c>
       <c r="G40">
-        <v>0.04470439687792391</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>0.05299033702890982</v>
+      </c>
+      <c r="H40">
+        <v>-0.04709905827305826</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.0007236433395142616</v>
+        <v>0.01108916336772582</v>
       </c>
       <c r="C41">
-        <v>0.008713432127843427</v>
+        <v>0.0003240950406226346</v>
       </c>
       <c r="D41">
-        <v>-0.006206864929532438</v>
+        <v>-0.009182609988523929</v>
       </c>
       <c r="E41">
-        <v>0.01626105709236494</v>
+        <v>-0.002420495284987828</v>
       </c>
       <c r="F41">
-        <v>-0.01154146935428324</v>
+        <v>0.003688483680320226</v>
       </c>
       <c r="G41">
-        <v>0.05547097522997759</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>0.009543072048316652</v>
+      </c>
+      <c r="H41">
+        <v>0.01672011065929879</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B42">
-        <v>-0.3539312274839997</v>
+        <v>0.1750999399293427</v>
       </c>
       <c r="C42">
-        <v>0.8922114811197795</v>
+        <v>0.1102866103600279</v>
       </c>
       <c r="D42">
-        <v>-0.1647415350468744</v>
+        <v>0.5168958688964598</v>
       </c>
       <c r="E42">
-        <v>-0.1370336640767295</v>
+        <v>-0.1271174246733022</v>
       </c>
       <c r="F42">
-        <v>0.04653507325670977</v>
+        <v>0.8036422692411771</v>
       </c>
       <c r="G42">
-        <v>0.02172977653343416</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>-0.09929480027378532</v>
+      </c>
+      <c r="H42">
+        <v>-0.019571786392496</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.007026828111760345</v>
+        <v>0.01131547383076068</v>
       </c>
       <c r="C43">
-        <v>0.003831135405656568</v>
+        <v>0.001514966383685247</v>
       </c>
       <c r="D43">
-        <v>-0.01021221107683808</v>
+        <v>-0.01323736886654477</v>
       </c>
       <c r="E43">
-        <v>0.01938443189408534</v>
+        <v>-0.008160680026385984</v>
       </c>
       <c r="F43">
-        <v>-0.03220031469668988</v>
+        <v>0.008245560133145979</v>
       </c>
       <c r="G43">
-        <v>0.04948279271099322</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>0.01878021737138858</v>
+      </c>
+      <c r="H43">
+        <v>0.008908105092406051</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>-0.02045669124694361</v>
+        <v>0.01670325249370538</v>
       </c>
       <c r="C44">
-        <v>0.002323980465606369</v>
+        <v>-0.0008637105409216988</v>
       </c>
       <c r="D44">
-        <v>-0.02532379429281711</v>
+        <v>0.02275350599785488</v>
       </c>
       <c r="E44">
-        <v>0.06749160347627635</v>
+        <v>-2.083410861764732e-06</v>
       </c>
       <c r="F44">
-        <v>-0.1659634230030134</v>
+        <v>-0.001454928311812908</v>
       </c>
       <c r="G44">
-        <v>0.1617939554068558</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>0.09057372779414642</v>
+      </c>
+      <c r="H44">
+        <v>-0.01345119475474218</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,79 +1870,91 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>-0.02102113504505902</v>
+        <v>0.02240892820630358</v>
       </c>
       <c r="C46">
-        <v>-0.01656709289904405</v>
+        <v>0.001563409440551407</v>
       </c>
       <c r="D46">
-        <v>-0.02000645201292721</v>
+        <v>0.009704969556425119</v>
       </c>
       <c r="E46">
-        <v>0.06804858546904792</v>
+        <v>-0.000543429872180005</v>
       </c>
       <c r="F46">
-        <v>-0.06863980034054494</v>
+        <v>-0.02975257907275656</v>
       </c>
       <c r="G46">
-        <v>0.0574633418177778</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>0.05852232516221334</v>
+      </c>
+      <c r="H46">
+        <v>0.01398493132383549</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>-0.09771598283542386</v>
+        <v>0.07779092762568225</v>
       </c>
       <c r="C47">
-        <v>-0.03210814845700067</v>
+        <v>-0.03084934068120966</v>
       </c>
       <c r="D47">
-        <v>-0.02759242498765556</v>
+        <v>0.03519413836730505</v>
       </c>
       <c r="E47">
-        <v>0.03523766688328769</v>
+        <v>-0.003823788350157559</v>
       </c>
       <c r="F47">
-        <v>-4.437678507576512e-06</v>
+        <v>-0.03024436379115647</v>
       </c>
       <c r="G47">
-        <v>0.08902882086438774</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>-0.009494068713099237</v>
+      </c>
+      <c r="H47">
+        <v>0.02934173590520935</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>-0.01526242816086536</v>
+        <v>0.02292765611247186</v>
       </c>
       <c r="C48">
-        <v>-0.00399344711988332</v>
+        <v>-0.006929184697132116</v>
       </c>
       <c r="D48">
-        <v>-0.01656800052839879</v>
+        <v>0.003904378251666738</v>
       </c>
       <c r="E48">
-        <v>0.0359927526797569</v>
+        <v>-0.002899021270979039</v>
       </c>
       <c r="F48">
-        <v>-0.04005174028248998</v>
+        <v>-0.01010212786301696</v>
       </c>
       <c r="G48">
-        <v>0.01825849056955299</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>0.02900080316543906</v>
+      </c>
+      <c r="H48">
+        <v>-0.0003458461177945789</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1827,56 +1974,65 @@
       <c r="G49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>-0.0917939050728796</v>
+        <v>0.07420846649303543</v>
       </c>
       <c r="C50">
-        <v>-0.01426589408529245</v>
+        <v>-0.02651100553236986</v>
       </c>
       <c r="D50">
-        <v>-0.04042327180755509</v>
+        <v>0.04188237643321835</v>
       </c>
       <c r="E50">
-        <v>0.05005814818845781</v>
+        <v>0.01041562916907627</v>
       </c>
       <c r="F50">
-        <v>-0.02696210861101861</v>
+        <v>-0.02307564359964149</v>
       </c>
       <c r="G50">
-        <v>0.03723294213185548</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>0.02267546244272612</v>
+      </c>
+      <c r="H50">
+        <v>0.02607524071231838</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>-0.02211265526492171</v>
+        <v>0.02275071001909915</v>
       </c>
       <c r="C51">
-        <v>-0.01244439847509288</v>
+        <v>-0.0004165791635330121</v>
       </c>
       <c r="D51">
-        <v>-0.0200151571446115</v>
+        <v>-0.009691555516803426</v>
       </c>
       <c r="E51">
-        <v>0.02320398383887344</v>
+        <v>-0.007682658856794197</v>
       </c>
       <c r="F51">
-        <v>-0.1422667141043202</v>
+        <v>0.004587833702149122</v>
       </c>
       <c r="G51">
-        <v>0.05715373637067704</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>0.07641635091188238</v>
+      </c>
+      <c r="H51">
+        <v>-0.02478139473657709</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1896,217 +2052,247 @@
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>-0.104140882839081</v>
+        <v>0.09576794147599806</v>
       </c>
       <c r="C53">
-        <v>-0.04562290242570982</v>
+        <v>-0.03765568514916051</v>
       </c>
       <c r="D53">
-        <v>-0.042106179822207</v>
+        <v>0.06638635566163527</v>
       </c>
       <c r="E53">
-        <v>0.04170996686110608</v>
+        <v>0.0004826168454459653</v>
       </c>
       <c r="F53">
-        <v>0.05093621497298614</v>
+        <v>-0.06229867587029264</v>
       </c>
       <c r="G53">
-        <v>0.02735081104564573</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>-0.05554567942160629</v>
+      </c>
+      <c r="H53">
+        <v>0.03472791923874801</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>-0.01586592942584138</v>
+        <v>0.02521903913035815</v>
       </c>
       <c r="C54">
-        <v>-0.02866995364260795</v>
+        <v>-0.01259262871493425</v>
       </c>
       <c r="D54">
-        <v>-0.0005467769036196932</v>
+        <v>-0.01960586158098584</v>
       </c>
       <c r="E54">
-        <v>0.03653843108906799</v>
+        <v>0.004248355184683297</v>
       </c>
       <c r="F54">
-        <v>-0.06119422334699701</v>
+        <v>-0.01180510238989267</v>
       </c>
       <c r="G54">
-        <v>0.07441950761854284</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>0.03776037347707963</v>
+      </c>
+      <c r="H54">
+        <v>0.01406629145986901</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>-0.1001820912133876</v>
+        <v>0.08151842293010093</v>
       </c>
       <c r="C55">
-        <v>-0.03310522283720371</v>
+        <v>-0.03298216327927816</v>
       </c>
       <c r="D55">
-        <v>-0.005168329718345843</v>
+        <v>0.06336373596112864</v>
       </c>
       <c r="E55">
-        <v>0.05232605127490209</v>
+        <v>0.01097511629553803</v>
       </c>
       <c r="F55">
-        <v>0.04496598298178588</v>
+        <v>-0.05195576429674815</v>
       </c>
       <c r="G55">
-        <v>0.06524778903119834</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>-0.03324156939502902</v>
+      </c>
+      <c r="H55">
+        <v>0.0453971549192004</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>-0.146234569268492</v>
+        <v>0.1312051457613811</v>
       </c>
       <c r="C56">
-        <v>-0.08035505660992974</v>
+        <v>-0.0575045671436771</v>
       </c>
       <c r="D56">
-        <v>-0.03299495319771093</v>
+        <v>0.08573726304111964</v>
       </c>
       <c r="E56">
-        <v>0.04665130265557004</v>
+        <v>0.004090123435317038</v>
       </c>
       <c r="F56">
-        <v>0.1553074561338892</v>
+        <v>-0.08827515969272819</v>
       </c>
       <c r="G56">
-        <v>-0.005805167692018083</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>-0.09970546651947737</v>
+      </c>
+      <c r="H56">
+        <v>0.02818379802995229</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B57">
-        <v>-0.04270948607019145</v>
+        <v>0.04332157680622294</v>
       </c>
       <c r="C57">
-        <v>-0.01322761925578097</v>
+        <v>0.00843573422888143</v>
       </c>
       <c r="D57">
-        <v>-0.03100869633684483</v>
+        <v>0.02042158926037639</v>
       </c>
       <c r="E57">
-        <v>0.0095744747076197</v>
+        <v>-0.01044041087088086</v>
       </c>
       <c r="F57">
-        <v>-0.07717927357022246</v>
+        <v>-0.02327113642695734</v>
       </c>
       <c r="G57">
-        <v>0.03535190744166212</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>0.06347606323260541</v>
+      </c>
+      <c r="H57">
+        <v>-0.01169375210372116</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>-0.1972137300748385</v>
+        <v>0.1476723162962378</v>
       </c>
       <c r="C58">
-        <v>-0.01901906816385782</v>
+        <v>-0.04163659962353046</v>
       </c>
       <c r="D58">
-        <v>-0.1253479773387958</v>
+        <v>0.1344749199173461</v>
       </c>
       <c r="E58">
-        <v>0.2312507329893427</v>
+        <v>-0.108969943118834</v>
       </c>
       <c r="F58">
-        <v>-0.2463415017835625</v>
+        <v>-0.02090151698652544</v>
       </c>
       <c r="G58">
-        <v>-0.02843516018271123</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>0.6693640660579484</v>
+      </c>
+      <c r="H58">
+        <v>0.556420534845305</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>-0.07044170627595162</v>
+        <v>0.1526642936868527</v>
       </c>
       <c r="C59">
-        <v>-0.08156108259772692</v>
+        <v>-0.04281127357626216</v>
       </c>
       <c r="D59">
-        <v>0.03841948828773224</v>
+        <v>-0.2146267503933336</v>
       </c>
       <c r="E59">
-        <v>-0.1395576221766981</v>
+        <v>-0.04112500328714099</v>
       </c>
       <c r="F59">
-        <v>-0.0954407213045583</v>
+        <v>0.07148674258359537</v>
       </c>
       <c r="G59">
-        <v>-0.0343336142217556</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>0.01692940113232146</v>
+      </c>
+      <c r="H59">
+        <v>-0.02106019137128078</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>-0.1696453751745454</v>
+        <v>0.1742706191083806</v>
       </c>
       <c r="C60">
-        <v>-0.05174942230164678</v>
+        <v>-0.03901359069462481</v>
       </c>
       <c r="D60">
-        <v>-0.06280403388793548</v>
+        <v>0.01703790091136006</v>
       </c>
       <c r="E60">
-        <v>0.04333712148940669</v>
+        <v>-0.05294211518087343</v>
       </c>
       <c r="F60">
-        <v>-0.1418871434463381</v>
+        <v>-0.05062392731738194</v>
       </c>
       <c r="G60">
-        <v>-0.3355566218947371</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>0.1356623706648722</v>
+      </c>
+      <c r="H60">
+        <v>-0.3750902046773955</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>-0.02008579077862449</v>
+        <v>0.02345650758610715</v>
       </c>
       <c r="C61">
-        <v>-0.005148777685838686</v>
+        <v>-0.006495830671467669</v>
       </c>
       <c r="D61">
-        <v>-0.008926546809965914</v>
+        <v>0.03806317539652566</v>
       </c>
       <c r="E61">
-        <v>0.0286402528757141</v>
+        <v>0.003324415560056208</v>
       </c>
       <c r="F61">
-        <v>-0.02055126396689016</v>
+        <v>-0.02622057709280059</v>
       </c>
       <c r="G61">
-        <v>0.01770906713686497</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>0.0333050437420243</v>
+      </c>
+      <c r="H61">
+        <v>-0.03667739052770048</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -2126,171 +2312,195 @@
       <c r="G62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>-0.01646178037934313</v>
+        <v>0.01439767764769522</v>
       </c>
       <c r="C63">
-        <v>-0.007357362593231191</v>
+        <v>0.001495481081036579</v>
       </c>
       <c r="D63">
-        <v>-0.01450966869321136</v>
+        <v>0.008472995479924523</v>
       </c>
       <c r="E63">
-        <v>0.04192951085512944</v>
+        <v>0.002357200250811405</v>
       </c>
       <c r="F63">
-        <v>-0.008826662167358865</v>
+        <v>-0.01792611469495132</v>
       </c>
       <c r="G63">
-        <v>0.04438267841021165</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>0.01612328302002088</v>
+      </c>
+      <c r="H63">
+        <v>0.01252438377082618</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>-0.0391934961953059</v>
+        <v>0.04436860665973062</v>
       </c>
       <c r="C64">
-        <v>-0.02223341586510522</v>
+        <v>-0.01143614234527661</v>
       </c>
       <c r="D64">
-        <v>0.01799044745177549</v>
+        <v>0.03422754762405326</v>
       </c>
       <c r="E64">
-        <v>0.03958216928553025</v>
+        <v>0.01057326758528587</v>
       </c>
       <c r="F64">
-        <v>-0.02292448418398748</v>
+        <v>-0.02245726256509693</v>
       </c>
       <c r="G64">
-        <v>0.06684853378885801</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>0.02257151402041623</v>
+      </c>
+      <c r="H64">
+        <v>-0.02636716439589351</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>-0.01348104597184988</v>
+        <v>0.033340660072973</v>
       </c>
       <c r="C65">
-        <v>0.003863282259562803</v>
+        <v>0.003951815858624352</v>
       </c>
       <c r="D65">
-        <v>-0.01370733059700616</v>
+        <v>0.0465087030886872</v>
       </c>
       <c r="E65">
-        <v>0.02080876997133425</v>
+        <v>0.006319140505979578</v>
       </c>
       <c r="F65">
-        <v>-0.008172258955162492</v>
+        <v>-0.0357977830967589</v>
       </c>
       <c r="G65">
-        <v>-0.007456416885779953</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>0.005753757028619848</v>
+      </c>
+      <c r="H65">
+        <v>-0.0601149035509051</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>-0.03803467296846238</v>
+        <v>0.02977143932300009</v>
       </c>
       <c r="C66">
-        <v>-0.02245713709877879</v>
+        <v>-0.006055512809886121</v>
       </c>
       <c r="D66">
-        <v>-0.02823343102553367</v>
+        <v>0.07904955811688356</v>
       </c>
       <c r="E66">
-        <v>0.0503179152138622</v>
+        <v>-0.005389125584782427</v>
       </c>
       <c r="F66">
-        <v>-0.03920116785843644</v>
+        <v>-0.05668527596802302</v>
       </c>
       <c r="G66">
-        <v>0.007627067292839084</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>0.04862593111899154</v>
+      </c>
+      <c r="H66">
+        <v>-0.05805454810154376</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>-0.0203247351042492</v>
+        <v>0.0443793282481127</v>
       </c>
       <c r="C67">
-        <v>0.0003784840599883442</v>
+        <v>-0.02060557304378779</v>
       </c>
       <c r="D67">
-        <v>0.01720611556160856</v>
+        <v>-0.006071137305117822</v>
       </c>
       <c r="E67">
-        <v>-0.02023340800720604</v>
+        <v>0.001579755790272212</v>
       </c>
       <c r="F67">
-        <v>-0.02226455040098171</v>
+        <v>-0.01130772795599541</v>
       </c>
       <c r="G67">
-        <v>-0.01263690870680115</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>0.01854325887150884</v>
+      </c>
+      <c r="H67">
+        <v>-0.0324099972796822</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>-0.08136221690019117</v>
+        <v>0.1518921358038189</v>
       </c>
       <c r="C68">
-        <v>-0.06026164849629657</v>
+        <v>-0.02081019958128472</v>
       </c>
       <c r="D68">
-        <v>0.05426393481407069</v>
+        <v>-0.2007940277263958</v>
       </c>
       <c r="E68">
-        <v>-0.1715190675031508</v>
+        <v>-0.03590923978423494</v>
       </c>
       <c r="F68">
-        <v>-0.07301987595440945</v>
+        <v>0.09522153296009317</v>
       </c>
       <c r="G68">
-        <v>-0.06729347205121214</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>0.01292418998611613</v>
+      </c>
+      <c r="H68">
+        <v>0.0406203362101466</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>-0.07219660284134458</v>
+        <v>0.06167095323112624</v>
       </c>
       <c r="C69">
-        <v>-0.02753040226310264</v>
+        <v>-0.02880582576090612</v>
       </c>
       <c r="D69">
-        <v>-0.02705674999942146</v>
+        <v>0.0338527929777385</v>
       </c>
       <c r="E69">
-        <v>0.01337318790705341</v>
+        <v>-0.004470507409458306</v>
       </c>
       <c r="F69">
-        <v>-0.01059375214869648</v>
+        <v>-0.02860083061205146</v>
       </c>
       <c r="G69">
-        <v>0.07659959247743738</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>-0.0005133392968163442</v>
+      </c>
+      <c r="H69">
+        <v>0.009022947061076779</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2310,194 +2520,221 @@
       <c r="G70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>-0.09765483598288661</v>
+        <v>0.1442718086006917</v>
       </c>
       <c r="C71">
-        <v>-0.06296565427924285</v>
+        <v>-0.02859558201500769</v>
       </c>
       <c r="D71">
-        <v>0.03470703616452058</v>
+        <v>-0.1856731629964772</v>
       </c>
       <c r="E71">
-        <v>-0.2122778622873834</v>
+        <v>-0.03548626243846262</v>
       </c>
       <c r="F71">
-        <v>-0.08927672740755078</v>
+        <v>0.09921949815123271</v>
       </c>
       <c r="G71">
-        <v>-0.03573614472391819</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>0.01089333157740387</v>
+      </c>
+      <c r="H71">
+        <v>0.02432482746015021</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>-0.1104262094979826</v>
+        <v>0.09066941701966572</v>
       </c>
       <c r="C72">
-        <v>-0.09156452611113494</v>
+        <v>-0.04307315609824836</v>
       </c>
       <c r="D72">
-        <v>-0.02101268840502845</v>
+        <v>0.06782095104714873</v>
       </c>
       <c r="E72">
-        <v>0.07773904099073511</v>
+        <v>-0.005032509733376722</v>
       </c>
       <c r="F72">
-        <v>-0.0878783701081307</v>
+        <v>-0.1013342132761903</v>
       </c>
       <c r="G72">
-        <v>-0.1081917916718632</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>0.1020046266678923</v>
+      </c>
+      <c r="H72">
+        <v>-0.1496316205064754</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>-0.2482538620272758</v>
+        <v>0.2389726374298826</v>
       </c>
       <c r="C73">
-        <v>-0.06600895843185108</v>
+        <v>-0.04872861742211018</v>
       </c>
       <c r="D73">
-        <v>-0.05443094930371724</v>
+        <v>0.06787182202518258</v>
       </c>
       <c r="E73">
-        <v>0.0009084464341595224</v>
+        <v>-0.07731486644730967</v>
       </c>
       <c r="F73">
-        <v>-0.2248683022508871</v>
+        <v>-0.06485109630018901</v>
       </c>
       <c r="G73">
-        <v>-0.4840340850712187</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>0.1847281644772453</v>
+      </c>
+      <c r="H73">
+        <v>-0.5036942590082791</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>-0.1292023730741015</v>
+        <v>0.1202469774175314</v>
       </c>
       <c r="C74">
-        <v>-0.04429052910870448</v>
+        <v>-0.0522378070024546</v>
       </c>
       <c r="D74">
-        <v>-0.03392601398648225</v>
+        <v>0.08618486313064024</v>
       </c>
       <c r="E74">
-        <v>0.01738675265218309</v>
+        <v>-0.003051344024108818</v>
       </c>
       <c r="F74">
-        <v>0.09269909113457918</v>
+        <v>-0.07327089103439613</v>
       </c>
       <c r="G74">
-        <v>-0.02891508625282384</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>-0.07486960468851538</v>
+      </c>
+      <c r="H74">
+        <v>0.009087286829153676</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>-0.2188730964071864</v>
+        <v>0.2291664824871787</v>
       </c>
       <c r="C75">
-        <v>-0.122310103175629</v>
+        <v>-0.1020688775012121</v>
       </c>
       <c r="D75">
-        <v>-0.08163768280020052</v>
+        <v>0.1382049753988828</v>
       </c>
       <c r="E75">
-        <v>0.06674586278606613</v>
+        <v>-0.01839818133418562</v>
       </c>
       <c r="F75">
-        <v>0.1675893587138713</v>
+        <v>-0.1507082466248634</v>
       </c>
       <c r="G75">
-        <v>0.04791349482525963</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>-0.1588052831870181</v>
+      </c>
+      <c r="H75">
+        <v>0.09024907716247328</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>-0.2730043982062137</v>
+        <v>0.2083988264966925</v>
       </c>
       <c r="C76">
-        <v>-0.1300223423902933</v>
+        <v>-0.09713144452413898</v>
       </c>
       <c r="D76">
-        <v>-0.01875487877275274</v>
+        <v>0.1268937011565949</v>
       </c>
       <c r="E76">
-        <v>0.03648718984706255</v>
+        <v>0.02272567038615954</v>
       </c>
       <c r="F76">
-        <v>0.2015735034399906</v>
+        <v>-0.1462171089918128</v>
       </c>
       <c r="G76">
-        <v>0.05405703005094745</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>-0.1729688902359893</v>
+      </c>
+      <c r="H76">
+        <v>0.09375906612596796</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>-0.1415314785263461</v>
+        <v>0.07394574189641981</v>
       </c>
       <c r="C77">
-        <v>0.02412880501060093</v>
+        <v>-0.009220746095473492</v>
       </c>
       <c r="D77">
-        <v>-0.06189062951277718</v>
+        <v>0.07496951255716028</v>
       </c>
       <c r="E77">
-        <v>0.1078300110093514</v>
+        <v>-0.01023863070012027</v>
       </c>
       <c r="F77">
-        <v>-0.2188314493987907</v>
+        <v>0.0027801906538504</v>
       </c>
       <c r="G77">
-        <v>0.1416400932564073</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>0.1325183932628527</v>
+      </c>
+      <c r="H77">
+        <v>0.06819418383592976</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>-0.05477843007910903</v>
+        <v>0.03749901888110511</v>
       </c>
       <c r="C78">
-        <v>-0.01523093852543561</v>
+        <v>-0.01028159523760046</v>
       </c>
       <c r="D78">
-        <v>-0.03870675638766265</v>
+        <v>0.05808453804580976</v>
       </c>
       <c r="E78">
-        <v>0.1030855504674616</v>
+        <v>0.003491488736707452</v>
       </c>
       <c r="F78">
-        <v>-0.03849355724236163</v>
+        <v>-0.04660831444079413</v>
       </c>
       <c r="G78">
-        <v>0.05579792277645288</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>0.06058482479003416</v>
+      </c>
+      <c r="H78">
+        <v>-0.02580135979799657</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2517,56 +2754,65 @@
       <c r="G79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:7">
+      <c r="H79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>-0.2148963573729405</v>
+        <v>0.1641721204952737</v>
       </c>
       <c r="C80">
-        <v>0.1343257012880052</v>
+        <v>-0.04853131687214955</v>
       </c>
       <c r="D80">
-        <v>0.914989128836185</v>
+        <v>0.003086556616191562</v>
       </c>
       <c r="E80">
-        <v>0.2814036328254212</v>
+        <v>0.962189566113308</v>
       </c>
       <c r="F80">
-        <v>0.004039921926965049</v>
+        <v>0.1398427333748661</v>
       </c>
       <c r="G80">
-        <v>-0.01773583206693868</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>0.09091150733748865</v>
+      </c>
+      <c r="H80">
+        <v>-0.007697038005069378</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>-0.1587090622392259</v>
+        <v>0.1516003392649395</v>
       </c>
       <c r="C81">
-        <v>-0.09178403929716947</v>
+        <v>-0.0667187689926034</v>
       </c>
       <c r="D81">
-        <v>-0.0277261003654246</v>
+        <v>0.08486036515045627</v>
       </c>
       <c r="E81">
-        <v>0.04647129128323105</v>
+        <v>0.004792768660338171</v>
       </c>
       <c r="F81">
-        <v>0.1714346612419814</v>
+        <v>-0.09677511899143662</v>
       </c>
       <c r="G81">
-        <v>0.01633790443931844</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>-0.105446134438875</v>
+      </c>
+      <c r="H81">
+        <v>0.06644913847644113</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2586,33 +2832,39 @@
       <c r="G82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:7">
+      <c r="H82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>-0.05451498423358776</v>
+        <v>0.03780291161615102</v>
       </c>
       <c r="C83">
-        <v>0.01176230511369799</v>
+        <v>-0.006955576416529725</v>
       </c>
       <c r="D83">
-        <v>-0.03924298375997414</v>
+        <v>0.02243192445454985</v>
       </c>
       <c r="E83">
-        <v>0.02531690739036577</v>
+        <v>-0.01281867355838629</v>
       </c>
       <c r="F83">
-        <v>-0.05851269477121254</v>
+        <v>-0.008401998852294873</v>
       </c>
       <c r="G83">
-        <v>0.05100364052543176</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>0.05714205117864005</v>
+      </c>
+      <c r="H83">
+        <v>-0.01593562772462698</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2632,263 +2884,299 @@
       <c r="G84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:7">
+      <c r="H84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>-0.237965924551475</v>
+        <v>0.2151195569463121</v>
       </c>
       <c r="C85">
-        <v>-0.1128356793341791</v>
+        <v>-0.08395864706562639</v>
       </c>
       <c r="D85">
-        <v>-0.05584241206105475</v>
+        <v>0.1423488699926844</v>
       </c>
       <c r="E85">
-        <v>0.04348072561785276</v>
+        <v>-0.01061001822033887</v>
       </c>
       <c r="F85">
-        <v>0.1830805152687742</v>
+        <v>-0.133720824034231</v>
       </c>
       <c r="G85">
-        <v>0.07242572388556712</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>-0.1689864309543518</v>
+      </c>
+      <c r="H85">
+        <v>0.06018889964996339</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>-0.001312519004368223</v>
+        <v>0.01751443574521407</v>
       </c>
       <c r="C86">
-        <v>0.01103235141362448</v>
+        <v>0.001069625036291656</v>
       </c>
       <c r="D86">
-        <v>0.0005946739305328402</v>
+        <v>0.00635728639009701</v>
       </c>
       <c r="E86">
-        <v>0.04606541885206595</v>
+        <v>-0.01128650729315434</v>
       </c>
       <c r="F86">
-        <v>-0.06495970155093217</v>
+        <v>0.004184341081289722</v>
       </c>
       <c r="G86">
-        <v>0.0194423917122035</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>0.08825232053686864</v>
+      </c>
+      <c r="H86">
+        <v>-0.03774647432843919</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>-0.03261705689587221</v>
+        <v>0.02938058499773789</v>
       </c>
       <c r="C87">
-        <v>-0.00639223925164872</v>
+        <v>-0.003168538841956747</v>
       </c>
       <c r="D87">
-        <v>-0.01325485017782601</v>
+        <v>0.02832210666240265</v>
       </c>
       <c r="E87">
-        <v>0.03437245718142936</v>
+        <v>-0.001549371405757062</v>
       </c>
       <c r="F87">
-        <v>-0.0824818317371443</v>
+        <v>-0.02181892121334342</v>
       </c>
       <c r="G87">
-        <v>0.001754597704475247</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>0.09602666179283549</v>
+      </c>
+      <c r="H87">
+        <v>-0.02595512879868829</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>-0.009677103465324847</v>
+        <v>0.03804383646799354</v>
       </c>
       <c r="C88">
-        <v>-0.01410070554000234</v>
+        <v>0.01027627754683631</v>
       </c>
       <c r="D88">
-        <v>0.02096399009863981</v>
+        <v>-0.0001555165694775064</v>
       </c>
       <c r="E88">
-        <v>-0.001878110738346869</v>
+        <v>0.008982364869088657</v>
       </c>
       <c r="F88">
-        <v>-0.02702842558992068</v>
+        <v>-0.01191844627853108</v>
       </c>
       <c r="G88">
-        <v>0.06790742374175285</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>-0.004651574264668291</v>
+      </c>
+      <c r="H88">
+        <v>-0.008288767318100172</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>-0.1147007990990616</v>
+        <v>0.2366423981255313</v>
       </c>
       <c r="C89">
-        <v>-0.0902366603138086</v>
+        <v>-0.04394054141488573</v>
       </c>
       <c r="D89">
-        <v>0.04839550740277829</v>
+        <v>-0.3259361576319973</v>
       </c>
       <c r="E89">
-        <v>-0.2737657519468566</v>
+        <v>-0.07901128886425567</v>
       </c>
       <c r="F89">
-        <v>-0.1419087349425176</v>
+        <v>0.1322295315567691</v>
       </c>
       <c r="G89">
-        <v>0.006592640520189904</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>-0.002851101370618048</v>
+      </c>
+      <c r="H89">
+        <v>0.0316046550076044</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>-0.10951995652671</v>
+        <v>0.1896152308228542</v>
       </c>
       <c r="C90">
-        <v>-0.09061606785580179</v>
+        <v>-0.03600238700109107</v>
       </c>
       <c r="D90">
-        <v>0.09323483311662537</v>
+        <v>-0.2846587565012247</v>
       </c>
       <c r="E90">
-        <v>-0.2926055543717702</v>
+        <v>-0.05260663961786744</v>
       </c>
       <c r="F90">
-        <v>-0.1073367285478824</v>
+        <v>0.1325987083939888</v>
       </c>
       <c r="G90">
-        <v>-0.01776670117423814</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>-0.04141885407167818</v>
+      </c>
+      <c r="H90">
+        <v>0.04262923182445694</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>-0.2916052802857584</v>
+        <v>0.2370198880197513</v>
       </c>
       <c r="C91">
-        <v>-0.1000971190109404</v>
+        <v>-0.1032025315273171</v>
       </c>
       <c r="D91">
-        <v>-0.07174783386546847</v>
+        <v>0.1372339485618822</v>
       </c>
       <c r="E91">
-        <v>0.02183218102284914</v>
+        <v>-0.01094139013614974</v>
       </c>
       <c r="F91">
-        <v>0.2578342114604165</v>
+        <v>-0.1367501563432147</v>
       </c>
       <c r="G91">
-        <v>0.03066605148042189</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>-0.20368701088359</v>
+      </c>
+      <c r="H91">
+        <v>0.1223383700706134</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>-0.1843520893724978</v>
+        <v>0.2442416752643458</v>
       </c>
       <c r="C92">
-        <v>-0.09175649889565471</v>
+        <v>-0.09827535068818667</v>
       </c>
       <c r="D92">
-        <v>0.1201611290147692</v>
+        <v>-0.2289639351797484</v>
       </c>
       <c r="E92">
-        <v>-0.4590578605667052</v>
+        <v>-0.03451753887595876</v>
       </c>
       <c r="F92">
-        <v>-0.05222526463638688</v>
+        <v>0.1121145859624048</v>
       </c>
       <c r="G92">
-        <v>0.4807179773236596</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>-0.04860978995675678</v>
+      </c>
+      <c r="H92">
+        <v>0.1416087548606999</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>-0.1168151488452843</v>
+        <v>0.2131389516387496</v>
       </c>
       <c r="C93">
-        <v>-0.07066565496888379</v>
+        <v>-0.04630581517645759</v>
       </c>
       <c r="D93">
-        <v>0.1080151861535189</v>
+        <v>-0.3037578998794334</v>
       </c>
       <c r="E93">
-        <v>-0.4034025883192807</v>
+        <v>-0.06739134816886867</v>
       </c>
       <c r="F93">
-        <v>-0.07340888969133685</v>
+        <v>0.1703769945129597</v>
       </c>
       <c r="G93">
-        <v>-0.08526910490612305</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>-0.05342499447454416</v>
+      </c>
+      <c r="H93">
+        <v>-0.01496005943705774</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>-0.2649994134438882</v>
+        <v>0.2549936643489958</v>
       </c>
       <c r="C94">
-        <v>-0.1456519712851684</v>
+        <v>-0.0916879340074003</v>
       </c>
       <c r="D94">
-        <v>-0.05469597976698956</v>
+        <v>0.1194907404779753</v>
       </c>
       <c r="E94">
-        <v>0.04083154352051974</v>
+        <v>-0.02918191324741787</v>
       </c>
       <c r="F94">
-        <v>0.3200174157784076</v>
+        <v>-0.1622701104073862</v>
       </c>
       <c r="G94">
-        <v>-0.02631521083707954</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>-0.2129338810141286</v>
+      </c>
+      <c r="H94">
+        <v>0.1334656568420642</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>-0.07996482352068354</v>
+        <v>0.06278581931859606</v>
       </c>
       <c r="C95">
-        <v>-0.005924087255701309</v>
+        <v>-0.03111574881308164</v>
       </c>
       <c r="D95">
-        <v>-0.08440081632869526</v>
+        <v>0.08972124476456676</v>
       </c>
       <c r="E95">
-        <v>0.08077306695844247</v>
+        <v>-0.07150317088137553</v>
       </c>
       <c r="F95">
-        <v>-0.03052926246513644</v>
+        <v>-0.02744739867556722</v>
       </c>
       <c r="G95">
-        <v>0.2224041826262524</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>0.06135619117593904</v>
+      </c>
+      <c r="H95">
+        <v>-0.005926006705768608</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2908,10 +3196,13 @@
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2931,33 +3222,39 @@
       <c r="G97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:7">
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>-0.1889510103043982</v>
+        <v>0.1813467587905437</v>
       </c>
       <c r="C98">
-        <v>-0.03443445297719342</v>
+        <v>-0.06946650645232158</v>
       </c>
       <c r="D98">
-        <v>-0.03347088156397325</v>
+        <v>0.04082376064939352</v>
       </c>
       <c r="E98">
-        <v>-0.03675158372514157</v>
+        <v>-0.05119710948518616</v>
       </c>
       <c r="F98">
-        <v>-0.1053348929849149</v>
+        <v>-0.02358448597967163</v>
       </c>
       <c r="G98">
-        <v>-0.3467612131927604</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>0.1558687309790637</v>
+      </c>
+      <c r="H98">
+        <v>-0.3652818659369494</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2977,10 +3274,13 @@
       <c r="G99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:7">
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3000,97 +3300,112 @@
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>-0.005791316309525022</v>
+        <v>0.01556723415623027</v>
       </c>
       <c r="C101">
-        <v>-0.02210673498925483</v>
+        <v>-0.0002061883819024245</v>
       </c>
       <c r="D101">
-        <v>-0.01511479506509151</v>
+        <v>0.004828599780909953</v>
       </c>
       <c r="E101">
-        <v>0.1185959362665719</v>
+        <v>0.0052327491728455</v>
       </c>
       <c r="F101">
-        <v>-0.1405119568308272</v>
+        <v>-0.02978672458509673</v>
       </c>
       <c r="G101">
-        <v>0.1267383857610779</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>0.1021526558530978</v>
+      </c>
+      <c r="H101">
+        <v>0.07224117365897118</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>-0.09658925051129691</v>
+        <v>0.1031340036637954</v>
       </c>
       <c r="C102">
-        <v>-0.03248469214441014</v>
+        <v>-0.03262908322490256</v>
       </c>
       <c r="D102">
-        <v>-0.02316184364548245</v>
+        <v>0.07162318831631068</v>
       </c>
       <c r="E102">
-        <v>0.05714587253790843</v>
+        <v>0.001909221200862151</v>
       </c>
       <c r="F102">
-        <v>0.1325894974854357</v>
+        <v>-0.06684727266975073</v>
       </c>
       <c r="G102">
-        <v>0.06980375296383777</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>-0.09465585381410498</v>
+      </c>
+      <c r="H102">
+        <v>0.05229577167177969</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B103">
-        <v>-0.02500112319503164</v>
+        <v>0.02022687599873589</v>
       </c>
       <c r="C103">
-        <v>-0.01217829868355532</v>
+        <v>-0.007588315693350855</v>
       </c>
       <c r="D103">
-        <v>-0.01277806589896749</v>
+        <v>0.01542739136101729</v>
       </c>
       <c r="E103">
-        <v>0.005330873515799804</v>
+        <v>0.006780347635102458</v>
       </c>
       <c r="F103">
-        <v>0.01520231696518392</v>
+        <v>-0.01775652955470675</v>
       </c>
       <c r="G103">
-        <v>0.02101007954689594</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
+        <v>-0.006195804898429583</v>
+      </c>
+      <c r="H103">
+        <v>0.01136208008600811</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>0.2760251400918359</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>0.9410255574950054</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>-0.04103439089831412</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>0.02646396937175852</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>-0.1577379431566142</v>
       </c>
       <c r="G104">
-        <v>0</v>
+        <v>-0.03687072894329842</v>
+      </c>
+      <c r="H104">
+        <v>0.03139349961404155</v>
       </c>
     </row>
   </sheetData>
